--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_02_CO.xlsx
@@ -5,16 +5,16 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\seguimiento\ProduccionDigital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21721" windowHeight="9718"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -707,23 +707,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.86328125" style="1"/>
+    <col min="8" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.100000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -731,7 +730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -774,7 +773,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -792,14 +791,16 @@
       <c r="G4" s="15">
         <v>42095.576388888891</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>42098.708333333336</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="17"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -815,14 +816,18 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I5" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="17"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -838,14 +843,18 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I6" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="17"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -861,14 +870,18 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I7" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="17"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -884,14 +897,18 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I8" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="9"/>
       <c r="L8" s="17"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -907,14 +924,18 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I9" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="17"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -930,14 +951,18 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I10" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="17"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -953,14 +978,18 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I11" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="17"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -976,14 +1005,18 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I12" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="17"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -999,14 +1032,18 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I13" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="17"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -1022,14 +1059,18 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I14" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="17"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1045,14 +1086,18 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I15" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="17"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1068,14 +1113,18 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I16" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="17"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1091,14 +1140,18 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I17" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="17"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1114,14 +1167,18 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I18" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="17"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1137,14 +1194,18 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I19" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="17"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1160,14 +1221,18 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I20" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="17"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1183,14 +1248,18 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I21" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="17"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1206,14 +1275,18 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I22" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="17"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1229,14 +1302,18 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I23" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="17"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1252,14 +1329,18 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I24" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="17"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1275,8 +1356,12 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="13">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I25" s="13">
+        <v>42100.501388888886</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="17"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_02_CO.xlsx
@@ -364,7 +364,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -403,9 +403,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J19" sqref="J19"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,8 +714,7 @@
     <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -774,21 +770,21 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>42095.569444444445</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>42095.572916666664</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>42095.576388888891</v>
       </c>
       <c r="H4" s="13">
@@ -797,8 +793,8 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -813,9 +809,9 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -824,8 +820,8 @@
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -840,9 +836,9 @@
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -851,8 +847,8 @@
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -867,9 +863,9 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -878,8 +874,8 @@
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -894,19 +890,21 @@
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I8" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="13">
+        <v>42117.434027777781</v>
+      </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -921,9 +919,9 @@
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -932,8 +930,8 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -948,19 +946,21 @@
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I10" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="13">
+        <v>42117.5</v>
+      </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -975,19 +975,21 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I11" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="13">
+        <v>42117.520833333336</v>
+      </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1002,9 +1004,9 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -1013,8 +1015,8 @@
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1029,9 +1031,9 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -1040,8 +1042,8 @@
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1056,19 +1058,21 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I14" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="13">
+        <v>42117.53125</v>
+      </c>
       <c r="K14" s="9"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1083,9 +1087,9 @@
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -1094,8 +1098,8 @@
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1110,19 +1114,21 @@
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I16" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="13">
+        <v>42117.557638888888</v>
+      </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -1137,19 +1143,21 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I17" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="13">
+        <v>42117.604861111111</v>
+      </c>
       <c r="K17" s="9"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -1164,19 +1172,21 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I18" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="13">
+        <v>42117.613194444442</v>
+      </c>
       <c r="K18" s="9"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -1191,9 +1201,9 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -1202,8 +1212,8 @@
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1218,19 +1228,21 @@
       <c r="D20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I20" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="13">
+        <v>42117.618055555555</v>
+      </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -1245,19 +1257,21 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="13">
         <v>42098.708333333336</v>
       </c>
       <c r="I21" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="13">
+        <v>42117.648611111108</v>
+      </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -1272,9 +1286,9 @@
       <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -1283,8 +1297,8 @@
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -1299,9 +1313,9 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -1310,8 +1324,8 @@
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -1326,9 +1340,9 @@
       <c r="D24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -1337,8 +1351,8 @@
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -1353,9 +1367,9 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="13">
         <v>42098.708333333336</v>
       </c>
@@ -1364,8 +1378,8 @@
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_02_CO.xlsx
@@ -704,7 +704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1322,7 @@
       <c r="I23" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="14"/>
@@ -1376,7 +1376,9 @@
       <c r="I25" s="13">
         <v>42100.501388888886</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="13">
+        <v>42117.69027777778</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="14"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_02_CO.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -355,7 +350,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -363,8 +358,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -390,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -415,13 +425,31 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="25">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,29 +732,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="1"/>
+    <col min="8" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" ht="18">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -769,38 +798,46 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>42095.569444444445</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>42095.572916666664</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>42095.576388888891</v>
       </c>
-      <c r="H4" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="H4" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I4" s="12">
+        <v>42113.501388888886</v>
+      </c>
+      <c r="J4" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K4" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L4" s="15">
+        <v>42143.576388888891</v>
+      </c>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -809,25 +846,29 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I5" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I5" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J5" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K5" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -836,25 +877,29 @@
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I6" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I6" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J6" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K6" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -863,25 +908,29 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I7" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I7" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J7" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K7" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -890,27 +939,29 @@
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I8" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I8" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J8" s="12">
         <v>42117.434027777781</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="K8" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -919,25 +970,29 @@
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I9" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I9" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J9" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K9" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="24">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -946,27 +1001,29 @@
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I10" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I10" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J10" s="12">
         <v>42117.5</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="K10" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -975,27 +1032,29 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I11" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I11" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J11" s="12">
         <v>42117.520833333336</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="K11" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1004,25 +1063,29 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I12" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I12" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J12" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K12" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1031,25 +1094,29 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I13" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I13" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J13" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K13" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1058,27 +1125,29 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I14" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I14" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J14" s="12">
         <v>42117.53125</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="K14" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1087,25 +1156,29 @@
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I15" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I15" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J15" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K15" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1114,27 +1187,29 @@
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I16" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I16" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J16" s="12">
         <v>42117.557638888888</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="K16" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1143,27 +1218,29 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I17" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I17" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J17" s="12">
         <v>42117.604861111111</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="K17" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1172,27 +1249,29 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I18" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I18" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J18" s="12">
         <v>42117.613194444442</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="K18" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1201,25 +1280,29 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I19" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I19" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J19" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K19" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1228,27 +1311,29 @@
       <c r="D20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I20" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I20" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J20" s="12">
         <v>42117.618055555555</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="K20" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1257,27 +1342,29 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I21" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I21" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J21" s="12">
         <v>42117.648611111108</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="K21" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1286,25 +1373,29 @@
       <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I22" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I22" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J22" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K22" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1313,25 +1404,29 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I23" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I23" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J23" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K23" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1340,25 +1435,29 @@
       <c r="D24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I24" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I24" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J24" s="12">
+        <v>42117.648611111108</v>
+      </c>
+      <c r="K24" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1367,21 +1466,23 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="13">
-        <v>42098.708333333336</v>
-      </c>
-      <c r="I25" s="13">
-        <v>42100.501388888886</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I25" s="12">
+        <v>42100.501388888886</v>
+      </c>
+      <c r="J25" s="12">
         <v>42117.69027777778</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="14"/>
+      <c r="K25" s="12">
+        <v>42142.648611111108</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
